--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.08.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.08.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1409,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1563,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1913,7 +1913,7 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2501,7 +2501,7 @@
         <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -2557,7 +2557,7 @@
         <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -2627,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2753,7 +2753,7 @@
         <v>84</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -2767,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
